--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-grade.xlsx
@@ -364,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,279 +384,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -784,9 +784,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -797,7 +805,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -817,367 +825,367 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1185,7 +1193,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -1193,7 +1201,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -1201,7 +1209,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -1209,7 +1217,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1217,9 +1225,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -1230,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1250,375 +1266,375 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -1626,7 +1642,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -1634,7 +1650,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -1642,7 +1658,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1650,9 +1666,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -1663,7 +1687,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1683,391 +1707,391 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2075,7 +2099,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2083,9 +2107,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -2096,7 +2128,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,399 +2148,399 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2516,9 +2548,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -2529,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2549,409 +2589,417 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -2962,7 +3010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2982,303 +3030,303 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3286,7 +3334,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3294,7 +3342,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3302,7 +3350,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3310,7 +3358,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3318,7 +3366,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3326,7 +3374,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3334,7 +3382,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3342,7 +3390,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3350,7 +3398,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3358,7 +3406,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3366,7 +3414,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3374,7 +3422,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3382,9 +3430,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -3395,7 +3451,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3415,319 +3471,319 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3735,7 +3791,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3743,7 +3799,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3751,7 +3807,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3759,7 +3815,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3767,7 +3823,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3775,7 +3831,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3783,7 +3839,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3791,7 +3847,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3799,7 +3855,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3807,7 +3863,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3815,9 +3871,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -3828,7 +3892,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3848,327 +3912,327 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4176,7 +4240,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4184,7 +4248,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4192,7 +4256,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -4200,7 +4264,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -4208,7 +4272,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4216,7 +4280,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4224,7 +4288,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -4232,7 +4296,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -4240,7 +4304,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -4248,9 +4312,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -4261,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4281,343 +4353,343 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4625,7 +4697,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -4633,7 +4705,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -4641,7 +4713,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4649,7 +4721,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4657,7 +4729,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -4665,7 +4737,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -4673,7 +4745,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -4681,9 +4753,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -4694,7 +4774,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4714,351 +4794,351 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -5066,7 +5146,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -5074,7 +5154,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -5082,7 +5162,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -5090,7 +5170,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -5098,7 +5178,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -5106,7 +5186,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -5114,9 +5194,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -5127,7 +5215,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5147,351 +5235,351 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -5499,7 +5587,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -5507,7 +5595,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -5515,7 +5603,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -5523,7 +5611,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -5531,7 +5619,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -5539,7 +5627,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -5547,9 +5635,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -5560,7 +5656,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5580,359 +5676,359 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -5940,7 +6036,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -5948,7 +6044,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -5956,7 +6052,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -5964,7 +6060,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -5972,7 +6068,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -5980,9 +6076,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>
@@ -5993,7 +6097,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6013,367 +6117,367 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -6381,7 +6485,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -6389,7 +6493,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -6397,7 +6501,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -6405,7 +6509,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -6413,9 +6517,17 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum2-raw-ss-lookup-tabbed-grade.xlsx
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -443,7 +443,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -451,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -459,7 +459,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -467,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -475,7 +475,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -483,7 +483,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -491,7 +491,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -499,7 +499,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -515,7 +515,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -523,7 +523,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -539,7 +539,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -547,7 +547,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -555,7 +555,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -563,7 +563,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -595,7 +595,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -603,7 +603,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -611,7 +611,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -627,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -635,7 +635,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -643,7 +643,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -651,7 +651,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -852,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -868,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -940,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -948,7 +948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -964,7 +964,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -972,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -980,7 +980,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -988,7 +988,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -996,7 +996,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1004,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -1020,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1036,7 +1036,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -1044,7 +1044,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -1052,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -1060,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1068,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1076,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1084,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1092,7 +1092,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -1100,7 +1100,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -1116,7 +1116,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1124,7 +1124,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -1148,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -1156,7 +1156,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1285,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1341,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1365,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1389,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -1413,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -1421,7 +1421,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -1429,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1437,7 +1437,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1445,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -1453,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1461,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1469,7 +1469,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -1477,7 +1477,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -1485,7 +1485,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1501,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -1509,7 +1509,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -1517,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -1525,7 +1525,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -1533,7 +1533,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -1549,7 +1549,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1557,7 +1557,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -1565,7 +1565,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1573,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -1581,7 +1581,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
@@ -1589,7 +1589,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -1621,7 +1621,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1742,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1782,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1822,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -1854,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -1862,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -1870,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1878,7 +1878,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1886,7 +1886,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1894,7 +1894,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -1902,7 +1902,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1910,7 +1910,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -1918,7 +1918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -1926,7 +1926,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -1934,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -1942,7 +1942,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -1950,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1958,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -1966,7 +1966,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -1982,7 +1982,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1990,7 +1990,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1998,7 +1998,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -2006,7 +2006,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -2014,7 +2014,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -2022,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -2030,7 +2030,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -2086,7 +2086,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2175,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2191,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2199,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -2215,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -2279,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2295,7 +2295,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -2303,7 +2303,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -2311,7 +2311,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -2319,7 +2319,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -2327,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -2335,7 +2335,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -2343,7 +2343,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -2351,7 +2351,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -2359,7 +2359,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -2367,7 +2367,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -2375,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -2383,7 +2383,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -2391,7 +2391,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -2399,7 +2399,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -2407,7 +2407,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -2415,7 +2415,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -2423,7 +2423,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -2431,7 +2431,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -2439,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -2447,7 +2447,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -2455,7 +2455,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -2463,7 +2463,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -2471,7 +2471,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -2479,7 +2479,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -2487,7 +2487,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -2511,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2624,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -2632,7 +2632,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -2648,7 +2648,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -2664,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -2720,7 +2720,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -2736,7 +2736,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -2744,7 +2744,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -2752,7 +2752,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -2760,7 +2760,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -2768,7 +2768,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -2776,7 +2776,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -2784,7 +2784,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -2792,7 +2792,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -2800,7 +2800,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -2808,7 +2808,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -2816,7 +2816,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -2824,7 +2824,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -2832,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -2840,7 +2840,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -2848,7 +2848,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -2856,7 +2856,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -2864,7 +2864,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -2872,7 +2872,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -2880,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -2896,7 +2896,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -2904,7 +2904,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -2912,7 +2912,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -2920,7 +2920,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -2928,7 +2928,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -2936,7 +2936,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -2944,7 +2944,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -2960,7 +2960,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -2968,7 +2968,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -2992,7 +2992,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -3097,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -3105,7 +3105,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -3113,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -3121,7 +3121,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -3129,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -3137,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -3145,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -3153,7 +3153,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -3161,7 +3161,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -3169,7 +3169,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -3177,7 +3177,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -3185,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -3193,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -3201,7 +3201,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -3209,7 +3209,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -3217,7 +3217,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -3225,7 +3225,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -3233,7 +3233,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -3241,7 +3241,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -3249,7 +3249,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -3257,7 +3257,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -3265,7 +3265,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -3273,7 +3273,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -3281,7 +3281,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -3289,7 +3289,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -3297,7 +3297,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -3305,7 +3305,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -3490,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -3498,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -3538,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -3546,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -3554,7 +3554,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3570,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3578,7 +3578,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -3586,7 +3586,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -3594,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -3602,7 +3602,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -3610,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -3618,7 +3618,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -3626,7 +3626,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -3634,7 +3634,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -3642,7 +3642,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -3650,7 +3650,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -3658,7 +3658,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -3666,7 +3666,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -3674,7 +3674,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -3682,7 +3682,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -3690,7 +3690,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -3698,7 +3698,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -3706,7 +3706,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -3714,7 +3714,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -3722,7 +3722,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -3730,7 +3730,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -3738,7 +3738,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -3746,7 +3746,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -3931,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -3995,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -4003,7 +4003,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -4011,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -4027,7 +4027,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -4035,7 +4035,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -4043,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -4051,7 +4051,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -4059,7 +4059,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -4067,7 +4067,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -4075,7 +4075,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -4083,7 +4083,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -4091,7 +4091,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -4099,7 +4099,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -4107,7 +4107,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -4115,7 +4115,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4123,7 +4123,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -4131,7 +4131,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -4139,7 +4139,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -4147,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -4155,7 +4155,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -4163,7 +4163,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -4171,7 +4171,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -4179,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -4187,7 +4187,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -4195,7 +4195,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -4372,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -4396,7 +4396,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -4428,7 +4428,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -4436,7 +4436,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -4460,7 +4460,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -4468,7 +4468,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -4476,7 +4476,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -4484,7 +4484,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -4500,7 +4500,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -4508,7 +4508,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -4516,7 +4516,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -4524,7 +4524,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -4532,7 +4532,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -4540,7 +4540,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -4548,7 +4548,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -4556,7 +4556,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -4564,7 +4564,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -4572,7 +4572,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -4580,7 +4580,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -4588,7 +4588,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -4596,7 +4596,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -4604,7 +4604,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -4612,7 +4612,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -4620,7 +4620,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -4628,7 +4628,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -4636,7 +4636,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -4644,7 +4644,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -4652,7 +4652,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -4660,7 +4660,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -4813,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -4845,7 +4845,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -4901,7 +4901,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -4909,7 +4909,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -4917,7 +4917,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -4925,7 +4925,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -4933,7 +4933,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -4941,7 +4941,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -4949,7 +4949,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -4957,7 +4957,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -4965,7 +4965,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -4973,7 +4973,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -4981,7 +4981,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -4989,7 +4989,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -4997,7 +4997,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -5005,7 +5005,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -5013,7 +5013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -5021,7 +5021,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -5029,7 +5029,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -5037,7 +5037,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -5045,7 +5045,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -5053,7 +5053,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -5061,7 +5061,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -5069,7 +5069,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -5077,7 +5077,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -5085,7 +5085,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -5093,7 +5093,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -5101,7 +5101,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -5109,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -5117,7 +5117,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -5133,7 +5133,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -5270,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -5294,7 +5294,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -5326,7 +5326,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -5350,7 +5350,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -5358,7 +5358,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -5382,7 +5382,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -5390,7 +5390,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -5398,7 +5398,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5406,7 +5406,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -5414,7 +5414,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -5422,7 +5422,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -5430,7 +5430,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -5438,7 +5438,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -5446,7 +5446,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -5454,7 +5454,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -5462,7 +5462,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -5470,7 +5470,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
@@ -5478,7 +5478,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -5486,7 +5486,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -5494,7 +5494,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -5502,7 +5502,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -5510,7 +5510,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -5518,7 +5518,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -5526,7 +5526,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -5534,7 +5534,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -5703,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -5719,7 +5719,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -5775,7 +5775,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -5799,7 +5799,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -5807,7 +5807,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -5815,7 +5815,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -5823,7 +5823,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -5839,7 +5839,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5847,7 +5847,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -5855,7 +5855,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -5863,7 +5863,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -5871,7 +5871,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -5879,7 +5879,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -5887,7 +5887,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -5895,7 +5895,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -5903,7 +5903,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -5911,7 +5911,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -5919,7 +5919,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -5927,7 +5927,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -5935,7 +5935,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -5943,7 +5943,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -5951,7 +5951,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -5959,7 +5959,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -5967,7 +5967,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -5975,7 +5975,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -5983,7 +5983,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -6023,7 +6023,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -6136,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -6144,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -6152,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -6176,7 +6176,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -6200,7 +6200,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -6224,7 +6224,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -6232,7 +6232,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -6248,7 +6248,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -6256,7 +6256,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -6264,7 +6264,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -6272,7 +6272,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -6280,7 +6280,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -6288,7 +6288,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -6296,7 +6296,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -6304,7 +6304,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -6312,7 +6312,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -6320,7 +6320,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -6328,7 +6328,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -6336,7 +6336,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -6344,7 +6344,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -6352,7 +6352,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -6360,7 +6360,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -6368,7 +6368,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -6376,7 +6376,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -6384,7 +6384,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -6392,7 +6392,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -6400,7 +6400,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -6408,7 +6408,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -6416,7 +6416,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -6424,7 +6424,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -6464,7 +6464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -6472,7 +6472,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
